--- a/exemplo_kpis.xlsx
+++ b/exemplo_kpis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magdo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\GROUPS\BR_SC_JGS_WMO_ENG_QUALIDADE\05. Certificação de Produtos\Usuários\Magdo\1. Atividades\6. Victor\1. ATV - KPI's_Banco_de_Dados\1.1 Arquivo Piloto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEED49C6-199E-46F3-892A-5795BA11E6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{942D4205-B1FD-49AF-BCA3-40B3BE6B4298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>Magdo</t>
+  </si>
+  <si>
+    <t>Victor</t>
   </si>
 </sst>
 </file>
@@ -426,13 +432,13 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -475,6 +481,35 @@
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
